--- a/model_considerations/Hydrogen demand model assumptions.xlsx
+++ b/model_considerations/Hydrogen demand model assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/DTU_Man/h2_system_dynamics/model_considerations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{7E50CEE6-ECCA-485B-8612-0B2B9290C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2234AA2C-F077-4B22-A181-E374657AEB19}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{7E50CEE6-ECCA-485B-8612-0B2B9290C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEB8A111-E004-44F3-BC09-F484F654D04D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="10" r:id="rId1"/>
@@ -30,62 +30,42 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Quartile summary'!$A$1:$B$16</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Scenarios - All'!$D$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Scenarios - All'!$D$8:$D$29</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Scenarios - equal years'!$E$7</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Scenarios - equal years'!$E$8:$E$21</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Scenarios - equal years'!$F$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Scenarios - equal years'!$F$8:$F$21</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Scenarios - equal years'!$G$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Scenarios - equal years'!$G$8:$G$21</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Scenarios - 2050 trimmed'!$D$7</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Scenarios - 2050 trimmed'!$D$8:$D$29</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Scenarios - 2050 trimmed'!$E$7</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Scenarios - 2050 trimmed'!$E$8:$E$29</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Scenarios - All'!$E$7</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Scenarios - 2050 trimmed'!$F$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Scenarios - 2050 trimmed'!$F$8:$F$29</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Scenarios - 2050 trimmed'!$G$7</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Scenarios - 2050 trimmed'!$G$8:$G$29</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Scenarios - Targets (not done)'!$D$7</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Scenarios - Targets (not done)'!$D$8:$D$28</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Scenarios - Targets (not done)'!$E$7</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Scenarios - Targets (not done)'!$E$8:$E$28</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Scenarios - Targets (not done)'!$F$7</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Scenarios - Targets (not done)'!$F$8:$F$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Scenarios - All'!$E$8:$E$29</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Scenarios - Targets (not done)'!$G$7</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Scenarios - Targets (not done)'!$G$8:$G$28</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Scen 2030'!$D$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Scen 2030'!$D$2:$D$23</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Scen 2030'!$E$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Scen 2030'!$E$2:$E$23</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Scen 2030'!$F$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Scen 2030'!$F$2:$F$23</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Scen 2030'!$G$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Scen 2030'!$G$2:$G$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Scenarios - All'!$F$7</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Scen 2040'!$D$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Scen 2040'!$D$2:$D$15</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Scen 2040'!$E$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Scen 2040'!$E$2:$E$15</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Scen 2040'!$F$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Scen 2040'!$F$2:$F$15</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Scen 2040'!$G$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Scen 2040'!$G$2:$G$15</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Scen 2050'!$D$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Scen 2050'!$D$2:$D$33</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Scenarios - All'!$F$8:$F$29</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Scen 2050'!$E$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Scen 2050'!$E$2:$E$33</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Scen 2050'!$F$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'Scen 2050'!$F$2:$F$33</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'Scen 2050'!$G$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'Scen 2050'!$G$2:$G$33</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Scenarios - All'!$G$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Scenarios - All'!$G$8:$G$29</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Scenarios - equal years'!$D$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Scenarios - equal years'!$D$8:$D$21</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Buildings!$A$4:$A$35</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Buildings!$B$4:$B$35</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Scenarios - All'!$B$8:$B$75</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Scenarios - All'!$F$8:$F$75</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Scen 2030'!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Scen 2030'!$D$2:$D$23</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Scen 2030'!$E$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Scen 2030'!$E$2:$E$23</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Scen 2030'!$F$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Scen 2030'!$F$2:$F$23</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Scen 2030'!$G$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Scen 2030'!$G$2:$G$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Buildings!$C$4:$C$35</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Scen 2040'!$D$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Scen 2040'!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Scen 2040'!$E$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Scen 2040'!$E$2:$E$15</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Scen 2040'!$F$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Scen 2040'!$F$2:$F$15</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Scen 2040'!$G$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Scen 2040'!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Scen 2050'!$D$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Scen 2050'!$D$2:$D$33</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Buildings!$A$4:$A$35</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Scen 2050'!$E$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Scen 2050'!$E$2:$E$33</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Scen 2050'!$F$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Scen 2050'!$F$2:$F$33</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Scen 2050'!$G$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Scen 2050'!$G$2:$G$33</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Buildings!$B$4:$B$35</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Buildings!$C$4:$C$35</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Buildings!#REF!</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Buildings!$A$3:$A$35</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Buildings!$B$3:$B$35</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Buildings!$C$3:$C$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -142,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="148">
   <si>
     <t>Drivers</t>
   </si>
@@ -361,9 +341,6 @@
   </si>
   <si>
     <t>Ancillary services balancing the grid with electrolyzers/fuel cells</t>
-  </si>
-  <si>
-    <t>Buildings/urban areas</t>
   </si>
   <si>
     <t>Year</t>
@@ -802,6 +779,705 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenarios - All'!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Building</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Scenarios - All'!$B$8:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Scenarios - All'!$F$8:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.541859913908041</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6123013099749066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.055704557421581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83408408475135132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.540507244407749</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.01351351351351</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.658999999999992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>153.9635769533989</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102.63139985380541</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>151.08666504484569</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27802802825045042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.210307504997381</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.407818901610426</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>147.66</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>222.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>523.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>309.95103468287158</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>191.4364210454643</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>181.0787147760521</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.25247723366887</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>225.20270270270271</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>580.52252252252254</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>350.53401411479177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7186-4EAD-A426-8CB205550D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="439954480"/>
+        <c:axId val="439954960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="439954480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439954960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="439954960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439954480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
           <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
@@ -1813,22 +2489,290 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Building sector forecasts: Annual hydrogen demand</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Building sector forecasts: Annual hydrogen demand</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0A2CA481-066D-4B29-9FE1-821DB00FEDD5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>2030</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D145781D-37EA-40CB-BD05-94E1CF704EAF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>2040</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AE4495F4-A47F-4CD0-974C-904CBE8AD572}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>2050</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Years</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Years</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="Standard" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                    <a:alpha val="0"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="0"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>TWh</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="900" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>TWh</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="900" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1866,7 +2810,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D3BD0F7D-2BAE-44BD-AD29-662B8030C958}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Industry</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1878,7 +2822,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{92B2ED95-DFB4-4E82-A185-22A1A6734FB9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Transport</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1890,7 +2834,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5EBC47D1-2C25-4BA5-9D9C-BD607C367726}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Building</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1902,234 +2846,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F747502-43D6-4065-ACF2-0C5294427239}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>Power</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Sector</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Sector</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>TWh/year</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:t>TWh/year</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Distribution for 2040</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Distribution for 2040</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{FF7C68B5-AB95-46DC-9E88-A7EC21FD1FCB}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
-              <cx:v>Industry</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{D8C547CF-F1DB-4D93-95C8-536817CFFC4A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
-              <cx:v>Transport</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F52591E0-0DCD-4F90-9DE0-6F928A2FD7BB}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>Building</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7D8F347C-DC53-4EC5-9361-12F93569F6AF}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Power</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2267,22 +2984,249 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Distribution for 2040</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Distribution for 2040</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{FF7C68B5-AB95-46DC-9E88-A7EC21FD1FCB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>Industry</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D8C547CF-F1DB-4D93-95C8-536817CFFC4A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>Transport</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F52591E0-0DCD-4F90-9DE0-6F928A2FD7BB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>Building</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7D8F347C-DC53-4EC5-9361-12F93569F6AF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>Power</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Sector</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Sector</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>TWh/year</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>TWh/year</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2320,7 +3264,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C9A5B8B8-03AE-4C53-8EE4-41F6DA7B1476}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Industry</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2332,7 +3276,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{26896E55-F019-4ED5-A9C9-C3426150A836}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>Transport</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2344,7 +3288,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FD543DCE-D96B-4323-9167-7133A25F9B56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>Building</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2356,7 +3300,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AC113F0F-AFB2-44C9-A810-23D7D296E39E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>Power</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2649,512 +3593,87 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3669,7 +4188,1028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4184,7 +5724,522 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4748,7 +6803,173 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C6A720-5556-4B41-8DAA-0A8A72D3ABC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6105525" y="0"/>
+              <a:ext cx="5486400" cy="4200524"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DD0D50-6958-BDD8-407F-25C3941DB2D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3636064" y="1537045"/>
+              <a:ext cx="6138656" cy="3309938"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4783,10 +7004,46 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE167C7-0E0D-0162-88E7-7CD77C5958DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4828,7 +7085,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4870,7 +7127,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4912,7 +7169,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4953,7 +7210,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5036,7 +7293,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5086,89 +7343,6 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6096000" y="0"/>
-              <a:ext cx="5486400" cy="4200524"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C6A720-5556-4B41-8DAA-0A8A72D3ABC7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6105525" y="0"/>
               <a:ext cx="5486400" cy="4200524"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5504,8 +7678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4841390-C637-4273-A5F7-8B00995B9B3A}">
   <dimension ref="B7:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5520,10 +7694,10 @@
   <sheetData>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -5532,13 +7706,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -5546,7 +7720,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3">
         <v>294</v>
@@ -5569,7 +7743,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4">
         <v>266</v>
@@ -5592,7 +7766,7 @@
         <v>2030</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3">
         <v>303</v>
@@ -5615,7 +7789,7 @@
         <v>2030</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4">
         <v>353</v>
@@ -5638,7 +7812,7 @@
         <v>2030</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="4">
         <v>497</v>
@@ -5661,7 +7835,7 @@
         <v>2030</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>400.32</v>
@@ -5684,7 +7858,7 @@
         <v>2030</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4">
         <v>451</v>
@@ -5707,7 +7881,7 @@
         <v>2030</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3">
         <v>484.72</v>
@@ -5730,7 +7904,7 @@
         <v>2030</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4">
         <v>200</v>
@@ -5753,7 +7927,7 @@
         <v>2030</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3">
         <v>224</v>
@@ -5776,7 +7950,7 @@
         <v>2030</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="4">
         <v>315.12634044874358</v>
@@ -5799,7 +7973,7 @@
         <v>2030</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3">
         <v>445.30566443696301</v>
@@ -5822,7 +7996,7 @@
         <v>2030</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4">
         <v>292.13569614956538</v>
@@ -5845,7 +8019,7 @@
         <v>2030</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3">
         <v>262.96963354594737</v>
@@ -5868,7 +8042,7 @@
         <v>2030</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="4">
         <v>279.47967330240903</v>
@@ -5891,7 +8065,7 @@
         <v>2030</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3">
         <v>283.82173566473108</v>
@@ -5914,7 +8088,7 @@
         <v>2030</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4">
         <v>269.63489001616267</v>
@@ -5937,7 +8111,7 @@
         <v>2030</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3">
         <v>262.96963354594737</v>
@@ -5960,7 +8134,7 @@
         <v>2030</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4">
         <v>271.31047438678797</v>
@@ -5983,7 +8157,7 @@
         <v>2030</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="3">
         <v>129.98699999999999</v>
@@ -6006,7 +8180,7 @@
         <v>2030</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="4">
         <v>386.62799999999999</v>
@@ -6029,7 +8203,7 @@
         <v>2040</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3">
         <v>857</v>
@@ -6052,7 +8226,7 @@
         <v>2040</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="4">
         <v>284</v>
@@ -6075,7 +8249,7 @@
         <v>2040</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3">
         <v>397</v>
@@ -6098,7 +8272,7 @@
         <v>2040</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="4">
         <v>552</v>
@@ -6121,7 +8295,7 @@
         <v>2040</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="3">
         <v>563</v>
@@ -6144,7 +8318,7 @@
         <v>2040</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="4">
         <v>514</v>
@@ -6167,7 +8341,7 @@
         <v>2040</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3">
         <v>373.88163673523718</v>
@@ -6190,7 +8364,7 @@
         <v>2040</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="4">
         <v>645.17967791461069</v>
@@ -6213,7 +8387,7 @@
         <v>2040</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="3">
         <v>513.56526261005718</v>
@@ -6236,7 +8410,7 @@
         <v>2040</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4">
         <v>263.88717066655238</v>
@@ -6259,7 +8433,7 @@
         <v>2040</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="3">
         <v>413.04798366271552</v>
@@ -6282,7 +8456,7 @@
         <v>2040</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="4">
         <v>587.9843985707239</v>
@@ -6305,7 +8479,7 @@
         <v>2040</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="3">
         <v>310.64559752872822</v>
@@ -6328,7 +8502,7 @@
         <v>2040</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="4">
         <v>547.85268233601778</v>
@@ -6351,7 +8525,7 @@
         <v>2050</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="3">
         <v>1200</v>
@@ -6374,7 +8548,7 @@
         <v>2050</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="4">
         <v>341</v>
@@ -6397,7 +8571,7 @@
         <v>2050</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="3">
         <v>494</v>
@@ -6420,7 +8594,7 @@
         <v>2050</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4">
         <v>725</v>
@@ -6443,7 +8617,7 @@
         <v>2050</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="4">
         <v>885</v>
@@ -6466,7 +8640,7 @@
         <v>2050</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="3">
         <v>423.72</v>
@@ -6489,7 +8663,7 @@
         <v>2050</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="4">
         <v>545.40000000000009</v>
@@ -6512,7 +8686,7 @@
         <v>2050</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50" s="3">
         <v>745.55</v>
@@ -6535,7 +8709,7 @@
         <v>2050</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D51" s="4">
         <v>759</v>
@@ -6558,7 +8732,7 @@
         <v>2050</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="3">
         <v>776</v>
@@ -6581,7 +8755,7 @@
         <v>2050</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -6604,7 +8778,7 @@
         <v>2050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -6627,7 +8801,7 @@
         <v>2050</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -6650,7 +8824,7 @@
         <v>2050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -6673,7 +8847,7 @@
         <v>2050</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" s="4">
         <v>1584</v>
@@ -6696,7 +8870,7 @@
         <v>2050</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="3">
         <v>165</v>
@@ -6719,7 +8893,7 @@
         <v>2050</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="4">
         <v>495</v>
@@ -6742,7 +8916,7 @@
         <v>2050</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="3">
         <v>957</v>
@@ -6765,7 +8939,7 @@
         <v>2050</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" s="4">
         <v>858</v>
@@ -6788,7 +8962,7 @@
         <v>2050</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" s="3">
         <v>528</v>
@@ -6811,7 +8985,7 @@
         <v>2050</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" s="4">
         <v>528</v>
@@ -6834,7 +9008,7 @@
         <v>2050</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D64" s="3">
         <v>528.83531974327695</v>
@@ -6857,7 +9031,7 @@
         <v>2050</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D65" s="4">
         <v>630.1339174076802</v>
@@ -6880,7 +9054,7 @@
         <v>2050</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D66" s="3">
         <v>749.55564963976235</v>
@@ -6903,7 +9077,7 @@
         <v>2050</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="4">
         <v>265.0236949295408</v>
@@ -6926,7 +9100,7 @@
         <v>2050</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" s="3">
         <v>450.68028242256503</v>
@@ -6949,7 +9123,7 @@
         <v>2050</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69" s="4">
         <v>674.45111535661397</v>
@@ -6972,7 +9146,7 @@
         <v>2050</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D70" s="3">
         <v>295.53668288803061</v>
@@ -6995,7 +9169,7 @@
         <v>2050</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" s="4">
         <v>328.02819210450588</v>
@@ -7018,7 +9192,7 @@
         <v>2050</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D72" s="3">
         <v>708.3705344468483</v>
@@ -7041,7 +9215,7 @@
         <v>2050</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D73" s="4">
         <v>919.17748482860577</v>
@@ -7071,17 +9245,17 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>28</v>
@@ -7090,13 +9264,13 @@
         <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7104,7 +9278,7 @@
         <v>2030</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1">
         <f>'Scen 2030'!D24</f>
@@ -7132,7 +9306,7 @@
         <v>2030</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1">
         <f>'Scen 2030'!D25</f>
@@ -7160,7 +9334,7 @@
         <v>2030</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1">
         <f>'Scen 2030'!D26</f>
@@ -7188,7 +9362,7 @@
         <v>2030</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
         <f>'Scen 2030'!D27</f>
@@ -7216,7 +9390,7 @@
         <v>2030</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1">
         <f>'Scen 2030'!D28</f>
@@ -7244,7 +9418,7 @@
         <v>2040</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7">
         <f>'Scen 2040'!D16</f>
@@ -7272,7 +9446,7 @@
         <v>2040</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <f>'Scen 2040'!D17</f>
@@ -7300,7 +9474,7 @@
         <v>2040</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9">
         <f>'Scen 2040'!D18</f>
@@ -7328,7 +9502,7 @@
         <v>2040</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10">
         <f>'Scen 2040'!D19</f>
@@ -7356,7 +9530,7 @@
         <v>2040</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11">
         <f>'Scen 2040'!D20</f>
@@ -7384,7 +9558,7 @@
         <v>2050</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <f>'Scen 2050'!D34</f>
@@ -7412,7 +9586,7 @@
         <v>2050</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13">
         <f>'Scen 2050'!D35</f>
@@ -7440,7 +9614,7 @@
         <v>2050</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14">
         <f>'Scen 2050'!D36</f>
@@ -7468,7 +9642,7 @@
         <v>2050</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <f>'Scen 2050'!D37</f>
@@ -7496,7 +9670,7 @@
         <v>2050</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16">
         <f>'Scen 2050'!D38</f>
@@ -7538,10 +9712,10 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
@@ -7550,13 +9724,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="5">
         <v>0</v>
@@ -7567,7 +9741,7 @@
         <v>2030</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3">
         <v>294</v>
@@ -7593,7 +9767,7 @@
         <v>2030</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4">
         <v>266</v>
@@ -7619,7 +9793,7 @@
         <v>2030</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3">
         <v>303</v>
@@ -7645,7 +9819,7 @@
         <v>2030</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4">
         <v>353</v>
@@ -7671,7 +9845,7 @@
         <v>2030</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3">
         <v>427</v>
@@ -7694,7 +9868,7 @@
         <v>2030</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="4">
         <v>497</v>
@@ -7717,7 +9891,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3">
         <v>400.32</v>
@@ -7740,7 +9914,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>451</v>
@@ -7763,7 +9937,7 @@
         <v>2030</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3">
         <v>484.72</v>
@@ -7786,7 +9960,7 @@
         <v>2030</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4">
         <v>200</v>
@@ -7809,7 +9983,7 @@
         <v>2030</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3">
         <v>224</v>
@@ -7832,7 +10006,7 @@
         <v>2030</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4">
         <v>315.12634044874358</v>
@@ -7855,7 +10029,7 @@
         <v>2030</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3">
         <v>445.30566443696301</v>
@@ -7878,7 +10052,7 @@
         <v>2030</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4">
         <v>292.13569614956538</v>
@@ -7901,7 +10075,7 @@
         <v>2030</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
         <v>262.96963354594737</v>
@@ -7924,7 +10098,7 @@
         <v>2030</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4">
         <v>279.47967330240903</v>
@@ -7947,7 +10121,7 @@
         <v>2030</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3">
         <v>283.82173566473108</v>
@@ -7970,7 +10144,7 @@
         <v>2030</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="4">
         <v>269.63489001616267</v>
@@ -7993,7 +10167,7 @@
         <v>2030</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="3">
         <v>262.96963354594737</v>
@@ -8016,7 +10190,7 @@
         <v>2030</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4">
         <v>271.31047438678797</v>
@@ -8039,7 +10213,7 @@
         <v>2030</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="3">
         <v>129.98699999999999</v>
@@ -8062,7 +10236,7 @@
         <v>2030</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4">
         <v>386.62799999999999</v>
@@ -8102,7 +10276,7 @@
         <v>223.31100000000001</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -8127,7 +10301,7 @@
         <v>303.69247512623309</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -8152,7 +10326,7 @@
         <v>343.83918463605301</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -8177,7 +10351,7 @@
         <v>489.25</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -8202,7 +10376,7 @@
         <v>767.18088958899739</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -8227,7 +10401,7 @@
         <v>411.75918124225427</v>
       </c>
       <c r="I30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -8240,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -8261,10 +10435,10 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
@@ -8273,13 +10447,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="5">
         <v>0</v>
@@ -8290,7 +10464,7 @@
         <v>2040</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3">
         <v>857</v>
@@ -8316,7 +10490,7 @@
         <v>2040</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4">
         <v>284</v>
@@ -8342,7 +10516,7 @@
         <v>2040</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3">
         <v>397</v>
@@ -8368,7 +10542,7 @@
         <v>2040</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4">
         <v>552</v>
@@ -8394,7 +10568,7 @@
         <v>2040</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3">
         <v>563</v>
@@ -8417,7 +10591,7 @@
         <v>2040</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4">
         <v>514</v>
@@ -8440,7 +10614,7 @@
         <v>2040</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="3">
         <v>373.88163673523718</v>
@@ -8463,7 +10637,7 @@
         <v>2040</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4">
         <v>645.17967791461069</v>
@@ -8486,7 +10660,7 @@
         <v>2040</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3">
         <v>513.56526261005718</v>
@@ -8509,7 +10683,7 @@
         <v>2040</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4">
         <v>263.88717066655238</v>
@@ -8532,7 +10706,7 @@
         <v>2040</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3">
         <v>413.04798366271552</v>
@@ -8555,7 +10729,7 @@
         <v>2040</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="4">
         <v>587.9843985707239</v>
@@ -8578,7 +10752,7 @@
         <v>2040</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3">
         <v>310.64559752872822</v>
@@ -8601,7 +10775,7 @@
         <v>2040</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="4">
         <v>547.85268233601778</v>
@@ -8641,7 +10815,7 @@
         <v>387.69513201536301</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
@@ -8666,7 +10840,7 @@
         <v>688.59508960122298</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
@@ -8691,7 +10865,7 @@
         <v>959.01271215818247</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
@@ -8716,7 +10890,7 @@
         <v>1214.5719139089404</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
@@ -8741,7 +10915,7 @@
         <v>1490</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
@@ -8766,7 +10940,7 @@
         <v>934.24040129561638</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
@@ -8797,10 +10971,10 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
@@ -8809,13 +10983,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="5">
         <v>0</v>
@@ -8826,7 +11000,7 @@
         <v>2050</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3">
         <v>1200</v>
@@ -8852,7 +11026,7 @@
         <v>2050</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4">
         <v>341</v>
@@ -8878,7 +11052,7 @@
         <v>2050</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3">
         <v>494</v>
@@ -8904,7 +11078,7 @@
         <v>2050</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4">
         <v>725</v>
@@ -8930,7 +11104,7 @@
         <v>2050</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3">
         <v>445</v>
@@ -8953,7 +11127,7 @@
         <v>2050</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="4">
         <v>885</v>
@@ -8976,7 +11150,7 @@
         <v>2050</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3">
         <v>423.72</v>
@@ -8999,7 +11173,7 @@
         <v>2050</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>545.40000000000009</v>
@@ -9022,7 +11196,7 @@
         <v>2050</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3">
         <v>745.55</v>
@@ -9045,7 +11219,7 @@
         <v>2050</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4">
         <v>759</v>
@@ -9068,7 +11242,7 @@
         <v>2050</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3">
         <v>776</v>
@@ -9091,7 +11265,7 @@
         <v>2050</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -9114,7 +11288,7 @@
         <v>2050</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -9137,7 +11311,7 @@
         <v>2050</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -9160,7 +11334,7 @@
         <v>2050</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -9183,7 +11357,7 @@
         <v>2050</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4">
         <v>1584</v>
@@ -9206,7 +11380,7 @@
         <v>2050</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3">
         <v>165</v>
@@ -9229,7 +11403,7 @@
         <v>2050</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4">
         <v>495</v>
@@ -9252,7 +11426,7 @@
         <v>2050</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="3">
         <v>957</v>
@@ -9275,7 +11449,7 @@
         <v>2050</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4">
         <v>858</v>
@@ -9298,7 +11472,7 @@
         <v>2050</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="3">
         <v>528</v>
@@ -9321,7 +11495,7 @@
         <v>2050</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4">
         <v>528</v>
@@ -9344,7 +11518,7 @@
         <v>2050</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="3">
         <v>528.83531974327695</v>
@@ -9367,7 +11541,7 @@
         <v>2050</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="4">
         <v>630.1339174076802</v>
@@ -9390,7 +11564,7 @@
         <v>2050</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="3">
         <v>749.55564963976235</v>
@@ -9413,7 +11587,7 @@
         <v>2050</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4">
         <v>265.0236949295408</v>
@@ -9436,7 +11610,7 @@
         <v>2050</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="3">
         <v>450.68028242256503</v>
@@ -9459,7 +11633,7 @@
         <v>2050</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4">
         <v>674.45111535661397</v>
@@ -9482,7 +11656,7 @@
         <v>2050</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="3">
         <v>295.53668288803061</v>
@@ -9505,7 +11679,7 @@
         <v>2050</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4">
         <v>328.02819210450588</v>
@@ -9528,7 +11702,7 @@
         <v>2050</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="3">
         <v>708.3705344468483</v>
@@ -9551,7 +11725,7 @@
         <v>2050</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4">
         <v>919.17748482860577</v>
@@ -9591,7 +11765,7 @@
         <v>198</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -9616,7 +11790,7 @@
         <v>745.5</v>
       </c>
       <c r="I35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -9641,7 +11815,7 @@
         <v>1386.1023585498147</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -9666,7 +11840,7 @@
         <v>2074.1765494837855</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -9691,7 +11865,7 @@
         <v>4818</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -9716,7 +11890,7 @@
         <v>1518.0830822421622</v>
       </c>
       <c r="I40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -9818,7 +11992,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9876,60 +12050,60 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
         <v>132</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9939,7 +12113,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -9982,7 +12156,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10046,19 +12220,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
         <v>125</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>126</v>
-      </c>
-      <c r="G12" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -10219,21 +12393,296 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA7830A-69DD-4E4F-AF70-C2D7C5472EEC}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>73</v>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2030</v>
+      </c>
+      <c r="B3">
+        <v>2040</v>
+      </c>
+      <c r="C3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3">
+        <v>166</v>
+      </c>
+      <c r="C8" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4">
+        <v>363</v>
+      </c>
+      <c r="C9" s="4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>12.51</v>
+      </c>
+      <c r="B10" s="3">
+        <v>153.9635769533989</v>
+      </c>
+      <c r="C10" s="3">
+        <v>147.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="B12" s="3">
+        <v>102.63139985380541</v>
+      </c>
+      <c r="C12" s="3">
+        <v>523.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>151.08666504484569</v>
+      </c>
+      <c r="C14" s="3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>16.541859913908041</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.27802802825045042</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>27.210307504997381</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>9.6123013099749066</v>
+      </c>
+      <c r="B17" s="4">
+        <v>84.407818901610426</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18.055704557421581</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.83408408475135132</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>34.540507244407749</v>
+      </c>
+      <c r="C21" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>15.01351351351351</v>
+      </c>
+      <c r="C23" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>76.658999999999992</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>309.95103468287158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>191.4364210454643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>181.0787147760521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>10.25247723366887</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>225.20270270270271</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>580.52252252252254</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>350.53401411479177</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10241,8 +12690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:H75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" activeCellId="1" sqref="F7:F75 B7:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10257,10 +12706,10 @@
   <sheetData>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -10269,13 +12718,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -10283,7 +12732,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3">
         <v>294</v>
@@ -10306,7 +12755,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4">
         <v>266</v>
@@ -10329,7 +12778,7 @@
         <v>2030</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3">
         <v>303</v>
@@ -10352,7 +12801,7 @@
         <v>2030</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4">
         <v>353</v>
@@ -10375,7 +12824,7 @@
         <v>2030</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>427</v>
@@ -10398,7 +12847,7 @@
         <v>2030</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4">
         <v>497</v>
@@ -10421,7 +12870,7 @@
         <v>2030</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3">
         <v>400.32</v>
@@ -10444,7 +12893,7 @@
         <v>2030</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="4">
         <v>451</v>
@@ -10467,7 +12916,7 @@
         <v>2030</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3">
         <v>484.72</v>
@@ -10490,7 +12939,7 @@
         <v>2030</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4">
         <v>200</v>
@@ -10513,7 +12962,7 @@
         <v>2030</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3">
         <v>224</v>
@@ -10536,7 +12985,7 @@
         <v>2030</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="4">
         <v>315.12634044874358</v>
@@ -10559,7 +13008,7 @@
         <v>2030</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="3">
         <v>445.30566443696301</v>
@@ -10582,7 +13031,7 @@
         <v>2030</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4">
         <v>292.13569614956538</v>
@@ -10605,7 +13054,7 @@
         <v>2030</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3">
         <v>262.96963354594737</v>
@@ -10628,7 +13077,7 @@
         <v>2030</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4">
         <v>279.47967330240903</v>
@@ -10651,7 +13100,7 @@
         <v>2030</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3">
         <v>283.82173566473108</v>
@@ -10674,7 +13123,7 @@
         <v>2030</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="4">
         <v>269.63489001616267</v>
@@ -10697,7 +13146,7 @@
         <v>2030</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="3">
         <v>262.96963354594737</v>
@@ -10720,7 +13169,7 @@
         <v>2030</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4">
         <v>271.31047438678797</v>
@@ -10743,7 +13192,7 @@
         <v>2030</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="3">
         <v>129.98699999999999</v>
@@ -10766,7 +13215,7 @@
         <v>2030</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4">
         <v>386.62799999999999</v>
@@ -10789,7 +13238,7 @@
         <v>2040</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3">
         <v>857</v>
@@ -10812,7 +13261,7 @@
         <v>2040</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="4">
         <v>284</v>
@@ -10835,7 +13284,7 @@
         <v>2040</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3">
         <v>397</v>
@@ -10858,7 +13307,7 @@
         <v>2040</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4">
         <v>552</v>
@@ -10881,7 +13330,7 @@
         <v>2040</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="3">
         <v>563</v>
@@ -10904,7 +13353,7 @@
         <v>2040</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="4">
         <v>514</v>
@@ -10927,7 +13376,7 @@
         <v>2040</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="3">
         <v>373.88163673523718</v>
@@ -10950,7 +13399,7 @@
         <v>2040</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="4">
         <v>645.17967791461069</v>
@@ -10973,7 +13422,7 @@
         <v>2040</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="3">
         <v>513.56526261005718</v>
@@ -10996,7 +13445,7 @@
         <v>2040</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4">
         <v>263.88717066655238</v>
@@ -11019,7 +13468,7 @@
         <v>2040</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="3">
         <v>413.04798366271552</v>
@@ -11042,7 +13491,7 @@
         <v>2040</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="4">
         <v>587.9843985707239</v>
@@ -11065,7 +13514,7 @@
         <v>2040</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3">
         <v>310.64559752872822</v>
@@ -11088,7 +13537,7 @@
         <v>2040</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4">
         <v>547.85268233601778</v>
@@ -11111,7 +13560,7 @@
         <v>2050</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="3">
         <v>1200</v>
@@ -11134,7 +13583,7 @@
         <v>2050</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="4">
         <v>341</v>
@@ -11157,7 +13606,7 @@
         <v>2050</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="3">
         <v>494</v>
@@ -11180,7 +13629,7 @@
         <v>2050</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="4">
         <v>725</v>
@@ -11203,7 +13652,7 @@
         <v>2050</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3">
         <v>445</v>
@@ -11226,7 +13675,7 @@
         <v>2050</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="4">
         <v>885</v>
@@ -11249,7 +13698,7 @@
         <v>2050</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="3">
         <v>423.72</v>
@@ -11272,7 +13721,7 @@
         <v>2050</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="4">
         <v>545.40000000000009</v>
@@ -11295,7 +13744,7 @@
         <v>2050</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="3">
         <v>745.55</v>
@@ -11318,7 +13767,7 @@
         <v>2050</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="4">
         <v>759</v>
@@ -11341,7 +13790,7 @@
         <v>2050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="3">
         <v>776</v>
@@ -11364,7 +13813,7 @@
         <v>2050</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -11387,7 +13836,7 @@
         <v>2050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -11410,7 +13859,7 @@
         <v>2050</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -11433,7 +13882,7 @@
         <v>2050</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -11456,7 +13905,7 @@
         <v>2050</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="4">
         <v>1584</v>
@@ -11479,7 +13928,7 @@
         <v>2050</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" s="3">
         <v>165</v>
@@ -11502,7 +13951,7 @@
         <v>2050</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" s="4">
         <v>495</v>
@@ -11525,7 +13974,7 @@
         <v>2050</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="3">
         <v>957</v>
@@ -11548,7 +13997,7 @@
         <v>2050</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" s="4">
         <v>858</v>
@@ -11571,7 +14020,7 @@
         <v>2050</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="3">
         <v>528</v>
@@ -11594,7 +14043,7 @@
         <v>2050</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="4">
         <v>528</v>
@@ -11617,7 +14066,7 @@
         <v>2050</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66" s="3">
         <v>528.83531974327695</v>
@@ -11640,7 +14089,7 @@
         <v>2050</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" s="4">
         <v>630.1339174076802</v>
@@ -11663,7 +14112,7 @@
         <v>2050</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68" s="3">
         <v>749.55564963976235</v>
@@ -11686,7 +14135,7 @@
         <v>2050</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="4">
         <v>265.0236949295408</v>
@@ -11709,7 +14158,7 @@
         <v>2050</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70" s="3">
         <v>450.68028242256503</v>
@@ -11732,7 +14181,7 @@
         <v>2050</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71" s="4">
         <v>674.45111535661397</v>
@@ -11755,7 +14204,7 @@
         <v>2050</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72" s="3">
         <v>295.53668288803061</v>
@@ -11778,7 +14227,7 @@
         <v>2050</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73" s="4">
         <v>328.02819210450588</v>
@@ -11801,7 +14250,7 @@
         <v>2050</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D74" s="3">
         <v>708.3705344468483</v>
@@ -11824,7 +14273,7 @@
         <v>2050</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D75" s="4">
         <v>919.17748482860577</v>
@@ -11868,10 +14317,10 @@
   <sheetData>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -11880,13 +14329,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -11894,7 +14343,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3">
         <v>294</v>
@@ -11917,7 +14366,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4">
         <v>266</v>
@@ -11940,7 +14389,7 @@
         <v>2030</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3">
         <v>303</v>
@@ -11963,7 +14412,7 @@
         <v>2030</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4">
         <v>353</v>
@@ -11986,7 +14435,7 @@
         <v>2030</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="4">
         <v>200</v>
@@ -12009,7 +14458,7 @@
         <v>2030</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3">
         <v>224</v>
@@ -12032,7 +14481,7 @@
         <v>2030</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4">
         <v>315.12634044874358</v>
@@ -12055,7 +14504,7 @@
         <v>2030</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
         <v>445.30566443696301</v>
@@ -12078,7 +14527,7 @@
         <v>2030</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4">
         <v>292.13569614956538</v>
@@ -12101,7 +14550,7 @@
         <v>2030</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>262.96963354594737</v>
@@ -12124,7 +14573,7 @@
         <v>2030</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4">
         <v>279.47967330240903</v>
@@ -12147,7 +14596,7 @@
         <v>2030</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>283.82173566473108</v>
@@ -12170,7 +14619,7 @@
         <v>2030</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="4">
         <v>269.63489001616267</v>
@@ -12193,7 +14642,7 @@
         <v>2030</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="3">
         <v>129.98699999999999</v>
@@ -12216,7 +14665,7 @@
         <v>2040</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3">
         <v>857</v>
@@ -12239,7 +14688,7 @@
         <v>2040</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4">
         <v>284</v>
@@ -12262,7 +14711,7 @@
         <v>2040</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3">
         <v>397</v>
@@ -12285,7 +14734,7 @@
         <v>2040</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4">
         <v>552</v>
@@ -12308,7 +14757,7 @@
         <v>2040</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3">
         <v>563</v>
@@ -12331,7 +14780,7 @@
         <v>2040</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4">
         <v>514</v>
@@ -12354,7 +14803,7 @@
         <v>2040</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="3">
         <v>373.88163673523718</v>
@@ -12377,7 +14826,7 @@
         <v>2040</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="4">
         <v>645.17967791461069</v>
@@ -12400,7 +14849,7 @@
         <v>2040</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="3">
         <v>513.56526261005718</v>
@@ -12423,7 +14872,7 @@
         <v>2040</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4">
         <v>263.88717066655238</v>
@@ -12446,7 +14895,7 @@
         <v>2040</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3">
         <v>413.04798366271552</v>
@@ -12469,7 +14918,7 @@
         <v>2040</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="4">
         <v>587.9843985707239</v>
@@ -12492,7 +14941,7 @@
         <v>2040</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="3">
         <v>310.64559752872822</v>
@@ -12515,7 +14964,7 @@
         <v>2040</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="4">
         <v>547.85268233601778</v>
@@ -12538,7 +14987,7 @@
         <v>2050</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="3">
         <v>1200</v>
@@ -12561,7 +15010,7 @@
         <v>2050</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="4">
         <v>341</v>
@@ -12584,7 +15033,7 @@
         <v>2050</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3">
         <v>494</v>
@@ -12607,7 +15056,7 @@
         <v>2050</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4">
         <v>725</v>
@@ -12630,7 +15079,7 @@
         <v>2050</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" s="4">
         <v>759</v>
@@ -12653,7 +15102,7 @@
         <v>2050</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="3">
         <v>776</v>
@@ -12676,7 +15125,7 @@
         <v>2050</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="3">
         <v>528.83531974327695</v>
@@ -12699,7 +15148,7 @@
         <v>2050</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="4">
         <v>630.1339174076802</v>
@@ -12722,7 +15171,7 @@
         <v>2050</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" s="3">
         <v>749.55564963976235</v>
@@ -12745,7 +15194,7 @@
         <v>2050</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4">
         <v>265.0236949295408</v>
@@ -12768,7 +15217,7 @@
         <v>2050</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="3">
         <v>450.68028242256503</v>
@@ -12791,7 +15240,7 @@
         <v>2050</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="4">
         <v>674.45111535661397</v>
@@ -12814,7 +15263,7 @@
         <v>2050</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="3">
         <v>295.53668288803061</v>
@@ -12837,7 +15286,7 @@
         <v>2050</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="4">
         <v>919.17748482860577</v>
@@ -12865,7 +15314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A2C5A8-C977-417D-AF9F-CF76B92FC4C8}">
   <dimension ref="B7:H64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
@@ -12881,10 +15330,10 @@
   <sheetData>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -12893,13 +15342,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -12907,7 +15356,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3">
         <v>294</v>
@@ -12930,7 +15379,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4">
         <v>266</v>
@@ -12953,7 +15402,7 @@
         <v>2030</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3">
         <v>303</v>
@@ -12976,7 +15425,7 @@
         <v>2030</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4">
         <v>353</v>
@@ -12999,7 +15448,7 @@
         <v>2030</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>427</v>
@@ -13022,7 +15471,7 @@
         <v>2030</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4">
         <v>497</v>
@@ -13045,7 +15494,7 @@
         <v>2030</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3">
         <v>400.32</v>
@@ -13068,7 +15517,7 @@
         <v>2030</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="4">
         <v>451</v>
@@ -13091,7 +15540,7 @@
         <v>2030</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3">
         <v>484.72</v>
@@ -13114,7 +15563,7 @@
         <v>2030</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4">
         <v>200</v>
@@ -13137,7 +15586,7 @@
         <v>2030</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3">
         <v>224</v>
@@ -13160,7 +15609,7 @@
         <v>2030</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="4">
         <v>315.12634044874358</v>
@@ -13183,7 +15632,7 @@
         <v>2030</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="3">
         <v>445.30566443696301</v>
@@ -13206,7 +15655,7 @@
         <v>2030</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4">
         <v>292.13569614956538</v>
@@ -13229,7 +15678,7 @@
         <v>2030</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3">
         <v>262.96963354594737</v>
@@ -13252,7 +15701,7 @@
         <v>2030</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4">
         <v>279.47967330240903</v>
@@ -13275,7 +15724,7 @@
         <v>2030</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3">
         <v>283.82173566473108</v>
@@ -13298,7 +15747,7 @@
         <v>2030</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="4">
         <v>269.63489001616267</v>
@@ -13321,7 +15770,7 @@
         <v>2030</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="3">
         <v>262.96963354594737</v>
@@ -13344,7 +15793,7 @@
         <v>2030</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4">
         <v>271.31047438678797</v>
@@ -13367,7 +15816,7 @@
         <v>2030</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="3">
         <v>129.98699999999999</v>
@@ -13390,7 +15839,7 @@
         <v>2030</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4">
         <v>386.62799999999999</v>
@@ -13413,7 +15862,7 @@
         <v>2040</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3">
         <v>857</v>
@@ -13436,7 +15885,7 @@
         <v>2040</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="4">
         <v>284</v>
@@ -13459,7 +15908,7 @@
         <v>2040</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3">
         <v>397</v>
@@ -13482,7 +15931,7 @@
         <v>2040</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4">
         <v>552</v>
@@ -13505,7 +15954,7 @@
         <v>2040</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="3">
         <v>563</v>
@@ -13528,7 +15977,7 @@
         <v>2040</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="4">
         <v>514</v>
@@ -13551,7 +16000,7 @@
         <v>2040</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="3">
         <v>373.88163673523718</v>
@@ -13574,7 +16023,7 @@
         <v>2040</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="4">
         <v>645.17967791461069</v>
@@ -13597,7 +16046,7 @@
         <v>2040</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="3">
         <v>513.56526261005718</v>
@@ -13620,7 +16069,7 @@
         <v>2040</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4">
         <v>263.88717066655238</v>
@@ -13643,7 +16092,7 @@
         <v>2040</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="3">
         <v>413.04798366271552</v>
@@ -13666,7 +16115,7 @@
         <v>2040</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="4">
         <v>587.9843985707239</v>
@@ -13689,7 +16138,7 @@
         <v>2040</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3">
         <v>310.64559752872822</v>
@@ -13712,7 +16161,7 @@
         <v>2040</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4">
         <v>547.85268233601778</v>
@@ -13735,7 +16184,7 @@
         <v>2050</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="3">
         <v>1200</v>
@@ -13758,7 +16207,7 @@
         <v>2050</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="4">
         <v>341</v>
@@ -13781,7 +16230,7 @@
         <v>2050</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="3">
         <v>494</v>
@@ -13804,7 +16253,7 @@
         <v>2050</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="4">
         <v>725</v>
@@ -13827,7 +16276,7 @@
         <v>2050</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3">
         <v>445</v>
@@ -13850,7 +16299,7 @@
         <v>2050</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="4">
         <v>885</v>
@@ -13873,7 +16322,7 @@
         <v>2050</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="3">
         <v>423.72</v>
@@ -13896,7 +16345,7 @@
         <v>2050</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="4">
         <v>545.40000000000009</v>
@@ -13919,7 +16368,7 @@
         <v>2050</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="3">
         <v>745.55</v>
@@ -13942,7 +16391,7 @@
         <v>2050</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="4">
         <v>759</v>
@@ -13965,7 +16414,7 @@
         <v>2050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="3">
         <v>776</v>
@@ -13988,7 +16437,7 @@
         <v>2050</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D55" s="3">
         <v>528.83531974327695</v>
@@ -14011,7 +16460,7 @@
         <v>2050</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" s="4">
         <v>630.1339174076802</v>
@@ -14034,7 +16483,7 @@
         <v>2050</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="3">
         <v>749.55564963976235</v>
@@ -14057,7 +16506,7 @@
         <v>2050</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="4">
         <v>265.0236949295408</v>
@@ -14080,7 +16529,7 @@
         <v>2050</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="3">
         <v>450.68028242256503</v>
@@ -14103,7 +16552,7 @@
         <v>2050</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="4">
         <v>674.45111535661397</v>
@@ -14126,7 +16575,7 @@
         <v>2050</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61" s="3">
         <v>295.53668288803061</v>
@@ -14149,7 +16598,7 @@
         <v>2050</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="4">
         <v>328.02819210450588</v>
@@ -14172,7 +16621,7 @@
         <v>2050</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63" s="3">
         <v>708.3705344468483</v>
@@ -14195,7 +16644,7 @@
         <v>2050</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="4">
         <v>919.17748482860577</v>
@@ -14228,15 +16677,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010031884995E9A9A64AA3A22F4FAF40DDA5" ma:contentTypeVersion="8" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="ac407292e3b0690188d056c2c9b6917d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8132505-76f9-4137-ae7c-79276eeb74ea" xmlns:ns4="7578888b-be12-48a9-baea-4639ac51bf0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea3ee7da360d09c273eff708846b1094" ns3:_="" ns4:_="">
     <xsd:import namespace="e8132505-76f9-4137-ae7c-79276eeb74ea"/>
@@ -14425,6 +16865,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8782CF38-416D-4DD0-BF0A-6AC22E22BA07}">
   <ds:schemaRefs>
@@ -14436,14 +16885,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E2B743-EFE0-4EB8-BE23-6F99C293C86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1384AD4-02A0-4F0C-925F-B7B0FDD7B85C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14460,4 +16901,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E2B743-EFE0-4EB8-BE23-6F99C293C86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>